--- a/biology/Botanique/Balanophoraceae/Balanophoraceae.xlsx
+++ b/biology/Botanique/Balanophoraceae/Balanophoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Balanophoraceae (les Balanophoracées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Santalales. Elle comprend une centaine d'espèces réparties en une vingtaine de genres.
 Ce sont des plantes totalement parasites très particulières, à l'aspect de champignons. Les fleurs sont extrêmement petites. Seule l'inflorescence est aérienne. Cette dernière se développe à partir d'une partie souterraine épaissie en forme de tubercule qui s'ouvre comme une volve de champignon.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Balanophora qui dérive du grec βάλανος / balanos, cupule ou gland, et φόρος / phoros, porter, « porteur de gland » en référence à la forme de l'inflorescence femelle.
 </t>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[1] en fait une famille de position incertaine. L'Angiosperm Phylogeny Website et la classification phylogénétique APG III (2009)[2] placent cette famille dans l'ordre des Santalales, en excluant la famille des Cynomoriaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) en fait une famille de position incertaine. L'Angiosperm Phylogeny Website et la classification phylogénétique APG III (2009) placent cette famille dans l'ordre des Santalales, en excluant la famille des Cynomoriaceae.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 avr. 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 avr. 2010) :
 genre Balanophora
 genre Corynaea
 genre Dactylanthus
@@ -587,7 +605,7 @@
 genre Mystropetalon
 genre Ombrophytum
 genre Scybalium
-Selon Angiosperm Phylogeny Website                        (21 mai 2010)[4] :
+Selon Angiosperm Phylogeny Website                        (21 mai 2010) :
 genre Balanophora J.R.Forst. &amp; G.Forst.
 genre Chlamydophytum Mildbr.
 genre Corynaea Hook.f.
@@ -605,7 +623,7 @@
 genre Sarcophyte Sparrm.
 genre Scybalium Schott &amp; Endl.
 genre Thonningia Vahl
-Selon GBIF       (6 janvier 2024)[5] :
+Selon GBIF       (6 janvier 2024) :
 Acroblastum Sol.
 Balanophora J.R.Forst. &amp; G.Forst.
 Blepharochlamys K.B.Presl, 1851
@@ -658,10 +676,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct de ce taxon est Balanophoraceae[5].
-Balanophoraceae a pour synonymes[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct de ce taxon est Balanophoraceae.
+Balanophoraceae a pour synonymes :
 Dactylanthaceae
 Hachetteaceae
 Helosidaceae
@@ -696,9 +716,11 @@
           <t>Liste des espèces (partielle)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 avr. 2010)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 avr. 2010) :
 genre Balanophora
 Balanophora fungosa
 Balanophora harlandii
